--- a/校园版4.9.4AI口语教练.xlsx
+++ b/校园版4.9.4AI口语教练.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15657\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3E329-8122-4CC9-AC9F-4CA5251E86AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27647E3-7BB2-48DF-B591-6474A4D2E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="168">
   <si>
     <t>系统信息</t>
   </si>
@@ -636,6 +636,91 @@
   </si>
   <si>
     <t>停止播放AI语音音频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证学生录音过程中点击教练应答提示的音频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入AI聊天界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音
+2.点击应答提示上的音频播放按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频正常播放且学生正常进行录音流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证学生录音过程中点击教练应答提示的翻译</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音
+2.点击应答提示上的翻译按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功进行翻译且学生正常进行录音流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证学生录音过程中点击应答提示弹窗外的区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音
+2.点击应答提示弹窗区域外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗关闭且学生正常进行录音流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证学生录音过程中点击应答提示弹窗【×】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入AI聊天应答提示界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音
+2.点击应答提示弹窗内的【×】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证应答提示弹窗内播放AI语音失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音，等待教练回答完毕
+2.点击教练应答提示弹窗
+3.进行网络限制
+4.点击播放AI音频按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常toast提示：“音频获取失败，点击按钮重新请求”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证应答提示加载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生进行录音，等待教练回答完毕
+2.进行网络限制
+3.点击教练应答提示按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常toast提示：“应答提示获取失败，请点击重试，点击按钮再次请求”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1328,6 +1413,84 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,84 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1735,84 +1820,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2685,84 +2770,132 @@
       <c r="K43" s="27"/>
       <c r="L43" s="29"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="D44" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="H44" s="24"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
       <c r="L44" s="29"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
+      <c r="D45" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>155</v>
+      </c>
       <c r="H45" s="24"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="29"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
+      <c r="D46" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>158</v>
+      </c>
       <c r="H46" s="24"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="29"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
+      <c r="D47" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>158</v>
+      </c>
       <c r="H47" s="24"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="29"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
+      <c r="D48" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>164</v>
+      </c>
       <c r="H48" s="24"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
+      <c r="D49" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="H49" s="24"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
@@ -3219,14 +3352,14 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="51"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="40"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -3235,14 +3368,14 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="53"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="24"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
@@ -3251,14 +3384,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="54"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="80"/>
       <c r="H84" s="24"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
@@ -3267,14 +3400,14 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="53"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="54"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="24"/>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
@@ -3283,14 +3416,14 @@
     </row>
     <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="57"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="64"/>
       <c r="H86" s="43"/>
       <c r="I86" s="44"/>
       <c r="J86" s="44"/>
@@ -3299,6 +3432,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -3306,18 +3451,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3350,84 +3483,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -4482,14 +4615,14 @@
     </row>
     <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="51"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="77"/>
       <c r="H79" s="40"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -4498,14 +4631,14 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="54"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="24"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
@@ -4514,14 +4647,14 @@
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="53"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="24"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
@@ -4530,14 +4663,14 @@
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="54"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="24"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
@@ -4546,14 +4679,14 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="64"/>
       <c r="H83" s="43"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
@@ -4562,6 +4695,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -4569,18 +4714,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/校园版4.9.4AI口语教练.xlsx
+++ b/校园版4.9.4AI口语教练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27647E3-7BB2-48DF-B591-6474A4D2E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6CE1DA-1487-41B8-BE47-955DE2C53D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,6 +1413,63 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1457,63 +1514,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1820,84 +1820,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -3352,14 +3352,14 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="75" t="s">
+      <c r="B82" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="77"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="51"/>
       <c r="H82" s="40"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -3368,14 +3368,14 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="24"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
@@ -3384,14 +3384,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="79"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="80"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="24"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
@@ -3400,14 +3400,14 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="79"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="80"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="24"/>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
@@ -3416,14 +3416,14 @@
     </row>
     <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="64"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="43"/>
       <c r="I86" s="44"/>
       <c r="J86" s="44"/>
@@ -3432,11 +3432,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -3444,13 +3446,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3483,84 +3483,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -4615,14 +4615,14 @@
     </row>
     <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="77"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="51"/>
       <c r="H79" s="40"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -4631,14 +4631,14 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="78" t="s">
+      <c r="B80" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="79"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="80"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="24"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
@@ -4647,14 +4647,14 @@
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="79"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="80"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="24"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
@@ -4663,14 +4663,14 @@
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="80"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="24"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
@@ -4679,14 +4679,14 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="64"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="43"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
@@ -4695,11 +4695,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4707,13 +4709,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/校园版4.9.4AI口语教练.xlsx
+++ b/校园版4.9.4AI口语教练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6CE1DA-1487-41B8-BE47-955DE2C53D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC9EB9-ADB0-458C-B5DE-D5E003B45FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="198">
   <si>
     <t>系统信息</t>
   </si>
@@ -721,6 +721,133 @@
   </si>
   <si>
     <t>异常toast提示：“应答提示获取失败，请点击重试，点击按钮再次请求”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证AI聊天界面点击学生语音【改进建议】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入AI聊天界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学生使用答题器进行作答
+2.点击【改进建议】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面综合评分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看学生综合评分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确展示学生综合评分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面流利度，准确度，发音分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看学生流利度，准确度，发音分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确展示学生流利度，准确度，发音分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转改进建议页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面语速文案提示1-110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生语速为100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看语速文案提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.试着加快一点语速，会更接近自然的英语对话节奏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面语速文案提示110-190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生语速为150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.语速掌握得很好，听众能很好理解你的意思</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面语速文案提示190-250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生语速为200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.试着放慢节奏，听起来会更加清晰和自然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证改进建议页面流利度文案提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多参与对话，练习常用句型，提高语言连贯性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看流利度文案提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多练习，提高语言组织能力，可以更流畅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生流利度为50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生流利度为70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入改进建议页面
+2.学生流利度为80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话很自然，继续保持</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1413,6 +1540,84 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1436,84 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1820,84 +1947,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
-        <v>0</v>
+      <c r="B1" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2902,14 +3029,22 @@
       <c r="K49" s="27"/>
       <c r="L49" s="29"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="D50" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="H50" s="24"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
@@ -2920,10 +3055,18 @@
       <c r="A51" s="20"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="D51" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="H51" s="24"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
@@ -2934,94 +3077,150 @@
       <c r="A52" s="20"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="34"/>
+      <c r="D52" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>178</v>
+      </c>
       <c r="H52" s="24"/>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
       <c r="L52" s="29"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="37"/>
+      <c r="D53" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>183</v>
+      </c>
       <c r="H53" s="24"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
       <c r="L53" s="29"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37"/>
+      <c r="D54" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="H54" s="24"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
       <c r="L54" s="29"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="37"/>
+      <c r="D55" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>189</v>
+      </c>
       <c r="H55" s="24"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
       <c r="L55" s="29"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
+      <c r="D56" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>191</v>
+      </c>
       <c r="H56" s="24"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
       <c r="L56" s="29"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
+      <c r="D57" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>193</v>
+      </c>
       <c r="H57" s="24"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
       <c r="L57" s="29"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
+      <c r="D58" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>197</v>
+      </c>
       <c r="H58" s="24"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
@@ -3352,14 +3551,14 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="51"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="40"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -3368,14 +3567,14 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="53"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="24"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
@@ -3384,14 +3583,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="54"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="80"/>
       <c r="H84" s="24"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
@@ -3400,14 +3599,14 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="53"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="54"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="24"/>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
@@ -3416,14 +3615,14 @@
     </row>
     <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="57"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="64"/>
       <c r="H86" s="43"/>
       <c r="I86" s="44"/>
       <c r="J86" s="44"/>
@@ -3432,6 +3631,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -3439,18 +3650,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3483,84 +3682,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -4615,14 +4814,14 @@
     </row>
     <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="51"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="77"/>
       <c r="H79" s="40"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -4631,14 +4830,14 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="54"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="24"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
@@ -4647,14 +4846,14 @@
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="53"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="24"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
@@ -4663,14 +4862,14 @@
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="54"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="24"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
@@ -4679,14 +4878,14 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="64"/>
       <c r="H83" s="43"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
@@ -4695,6 +4894,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -4702,18 +4913,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
